--- a/Viral and Bacterial Data/bacteria_virus_data.xlsx
+++ b/Viral and Bacterial Data/bacteria_virus_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Viral and Bacterial Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE64595-243C-4923-AE86-02F01D3868B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{495A3480-CA99-4240-9B0B-FF0BFFF489BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7695" windowHeight="6825" xr2:uid="{12C47080-CEF6-49ED-8CB9-1E0B3D6182A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="201">
   <si>
     <t>Kingdom</t>
   </si>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>V3S9</t>
-  </si>
-  <si>
-    <t>Total Cell Count Across Samples</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -674,57 +671,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -732,21 +683,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,20 +1002,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F3066E-2068-43F1-80B0-7EE7AB3EFDF5}">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="52" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AC101" sqref="AC101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="37" width="9.140625" style="4"/>
-    <col min="38" max="38" width="36.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1176,12 +1116,9 @@
       <c r="AK1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM1" s="6"/>
+      <c r="AL1" s="5"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1283,10 +1220,9 @@
       <c r="AK2" s="3">
         <v>140805</v>
       </c>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="6"/>
+      <c r="AL2" s="5"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,482 +1272,465 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="6"/>
+      <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>16423</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>24034</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>13561</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>7675</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>5072</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>8513</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>1681</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>8460</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>3097</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>7822</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>7373</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>11395</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>39201</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>18053</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>31526</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>45687</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>15519</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>12178</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>8821</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>14164</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <v>13410</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <v>17237</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>14180</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>17693</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <v>41616</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>15250</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="7">
         <v>13304</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>7369</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="7">
         <v>3052</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="7">
         <v>17049</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="7">
         <v>19554</v>
       </c>
-      <c r="AL4" s="11">
-        <f>SUM(G4:AK4)</f>
-        <v>479969</v>
-      </c>
-      <c r="AM4" s="6"/>
+      <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>26406</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>21836</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>32021</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>12547</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>17033</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>7141</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>9182</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>19495</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>5242</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>3819</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>6277</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>7441</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>6572</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>3340</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>14650</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>19499</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>33483</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>7637</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>2365</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <v>11231</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <v>23649</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <v>9444</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>15115</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="7">
         <v>22619</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <v>16034</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <v>1490</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="7">
         <v>403</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>218</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="7">
         <v>1351</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="7">
         <v>9980</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="7">
         <v>21152</v>
       </c>
-      <c r="AL5" s="11">
-        <f>SUM(G5:AK5)</f>
-        <v>388672</v>
-      </c>
-      <c r="AM5" s="6"/>
+      <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>8169</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>13392</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>13219</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>2306</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>12424</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>4594</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>8839</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>6304</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>4740</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>3017</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>10399</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>16118</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>2121</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>1535</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>4299</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>5579</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>5961</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <v>3362</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <v>1138</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>1276</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="7">
         <v>13162</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <v>6675</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <v>5616</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="7">
         <v>5036</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <v>20600</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <v>3218</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="7">
         <v>766</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <v>585</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="7">
         <v>3562</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="7">
         <v>18281</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="7">
         <v>23557</v>
       </c>
-      <c r="AL6" s="11">
-        <f>SUM(G6:AK6)</f>
-        <v>229850</v>
-      </c>
-      <c r="AM6" s="6"/>
+      <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>8770</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>8606</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>17086</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>3725</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>7028</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>2833</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>2888</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>5670</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>1420</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>2956</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>4022</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>7377</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>2536</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>2145</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>10717</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>5166</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>5110</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>8584</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <v>1918</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <v>6399</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="7">
         <v>7144</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="7">
         <v>15421</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>9363</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="7">
         <v>11266</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <v>12228</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <v>244</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="7">
         <v>1288</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="7">
         <v>963</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="7">
         <v>3454</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="7">
         <v>5700</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="7">
         <v>4299</v>
       </c>
-      <c r="AL7" s="11">
-        <f>SUM(G7:AK7)</f>
-        <v>186326</v>
-      </c>
-      <c r="AM7" s="6"/>
+      <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1923,13 +1842,9 @@
       <c r="AK8" s="4">
         <v>1833</v>
       </c>
-      <c r="AL8" s="12">
-        <f>SUM(G8:AK8)</f>
-        <v>175322</v>
-      </c>
-      <c r="AM8" s="6"/>
+      <c r="AL8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2041,12 +1956,8 @@
       <c r="AK9" s="4">
         <v>3074</v>
       </c>
-      <c r="AL9" s="12">
-        <f>SUM(G9:AK9)</f>
-        <v>134411</v>
-      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2158,12 +2069,8 @@
       <c r="AK10" s="4">
         <v>3086</v>
       </c>
-      <c r="AL10" s="12">
-        <f>SUM(G10:AK10)</f>
-        <v>102300</v>
-      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2275,12 +2182,8 @@
       <c r="AK11" s="4">
         <v>7425</v>
       </c>
-      <c r="AL11" s="12">
-        <f>SUM(G11:AK11)</f>
-        <v>97190</v>
-      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2392,12 +2295,8 @@
       <c r="AK12" s="4">
         <v>3084</v>
       </c>
-      <c r="AL12" s="12">
-        <f>SUM(G12:AK12)</f>
-        <v>78326</v>
-      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2509,12 +2408,8 @@
       <c r="AK13" s="4">
         <v>6783</v>
       </c>
-      <c r="AL13" s="12">
-        <f>SUM(G13:AK13)</f>
-        <v>75745</v>
-      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2626,12 +2521,8 @@
       <c r="AK14" s="4">
         <v>2657</v>
       </c>
-      <c r="AL14" s="12">
-        <f>SUM(G14:AK14)</f>
-        <v>70335</v>
-      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2743,12 +2634,8 @@
       <c r="AK15" s="4">
         <v>1275</v>
       </c>
-      <c r="AL15" s="12">
-        <f>SUM(G15:AK15)</f>
-        <v>64038</v>
-      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2860,12 +2747,8 @@
       <c r="AK16" s="4">
         <v>2761</v>
       </c>
-      <c r="AL16" s="12">
-        <f>SUM(G16:AK16)</f>
-        <v>46051</v>
-      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2977,12 +2860,8 @@
       <c r="AK17" s="4">
         <v>1</v>
       </c>
-      <c r="AL17" s="12">
-        <f>SUM(G17:AK17)</f>
-        <v>41878</v>
-      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3094,12 +2973,8 @@
       <c r="AK18" s="4">
         <v>1356</v>
       </c>
-      <c r="AL18" s="12">
-        <f>SUM(G18:AK18)</f>
-        <v>34394</v>
-      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3211,12 +3086,8 @@
       <c r="AK19" s="4">
         <v>1689</v>
       </c>
-      <c r="AL19" s="12">
-        <f>SUM(G19:AK19)</f>
-        <v>31910</v>
-      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3328,12 +3199,8 @@
       <c r="AK20" s="4">
         <v>3</v>
       </c>
-      <c r="AL20" s="12">
-        <f>SUM(G20:AK20)</f>
-        <v>29128</v>
-      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3445,12 +3312,8 @@
       <c r="AK21" s="4">
         <v>1599</v>
       </c>
-      <c r="AL21" s="12">
-        <f>SUM(G21:AK21)</f>
-        <v>28643</v>
-      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3562,12 +3425,8 @@
       <c r="AK22" s="4">
         <v>1613</v>
       </c>
-      <c r="AL22" s="12">
-        <f>SUM(G22:AK22)</f>
-        <v>24853</v>
-      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3679,12 +3538,8 @@
       <c r="AK23" s="4">
         <v>2</v>
       </c>
-      <c r="AL23" s="12">
-        <f>SUM(G23:AK23)</f>
-        <v>21338</v>
-      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3796,12 +3651,8 @@
       <c r="AK24" s="4">
         <v>268</v>
       </c>
-      <c r="AL24" s="12">
-        <f>SUM(G24:AK24)</f>
-        <v>15607</v>
-      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3913,12 +3764,8 @@
       <c r="AK25" s="4">
         <v>24</v>
       </c>
-      <c r="AL25" s="12">
-        <f>SUM(G25:AK25)</f>
-        <v>13201</v>
-      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4030,12 +3877,8 @@
       <c r="AK26" s="4">
         <v>35</v>
       </c>
-      <c r="AL26" s="12">
-        <f>SUM(G26:AK26)</f>
-        <v>13177</v>
-      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4147,12 +3990,8 @@
       <c r="AK27" s="4">
         <v>326</v>
       </c>
-      <c r="AL27" s="12">
-        <f>SUM(G27:AK27)</f>
-        <v>12846</v>
-      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4264,12 +4103,8 @@
       <c r="AK28" s="4">
         <v>40</v>
       </c>
-      <c r="AL28" s="12">
-        <f>SUM(G28:AK28)</f>
-        <v>12494</v>
-      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4381,12 +4216,8 @@
       <c r="AK29" s="4">
         <v>371</v>
       </c>
-      <c r="AL29" s="12">
-        <f>SUM(G29:AK29)</f>
-        <v>12158</v>
-      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4498,12 +4329,8 @@
       <c r="AK30" s="4">
         <v>300</v>
       </c>
-      <c r="AL30" s="12">
-        <f>SUM(G30:AK30)</f>
-        <v>8587</v>
-      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4615,12 +4442,8 @@
       <c r="AK31" s="4">
         <v>583</v>
       </c>
-      <c r="AL31" s="12">
-        <f>SUM(G31:AK31)</f>
-        <v>8213</v>
-      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4732,12 +4555,8 @@
       <c r="AK32" s="4">
         <v>2065</v>
       </c>
-      <c r="AL32" s="12">
-        <f>SUM(G32:AK32)</f>
-        <v>5004</v>
-      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4849,12 +4668,8 @@
       <c r="AK33" s="4">
         <v>82</v>
       </c>
-      <c r="AL33" s="12">
-        <f>SUM(G33:AK33)</f>
-        <v>4622</v>
-      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4966,12 +4781,8 @@
       <c r="AK34" s="4">
         <v>1</v>
       </c>
-      <c r="AL34" s="12">
-        <f>SUM(G34:AK34)</f>
-        <v>4600</v>
-      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -5083,12 +4894,8 @@
       <c r="AK35" s="4">
         <v>330</v>
       </c>
-      <c r="AL35" s="12">
-        <f>SUM(G35:AK35)</f>
-        <v>4325</v>
-      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -5200,12 +5007,8 @@
       <c r="AK36" s="4">
         <v>12</v>
       </c>
-      <c r="AL36" s="12">
-        <f>SUM(G36:AK36)</f>
-        <v>4242</v>
-      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5317,12 +5120,8 @@
       <c r="AK37" s="4">
         <v>184</v>
       </c>
-      <c r="AL37" s="12">
-        <f>SUM(G37:AK37)</f>
-        <v>4208</v>
-      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5434,12 +5233,8 @@
       <c r="AK38" s="4">
         <v>27</v>
       </c>
-      <c r="AL38" s="12">
-        <f>SUM(G38:AK38)</f>
-        <v>3926</v>
-      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5551,12 +5346,8 @@
       <c r="AK39" s="4">
         <v>79</v>
       </c>
-      <c r="AL39" s="12">
-        <f>SUM(G39:AK39)</f>
-        <v>3737</v>
-      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5668,12 +5459,8 @@
       <c r="AK40" s="4">
         <v>88</v>
       </c>
-      <c r="AL40" s="12">
-        <f>SUM(G40:AK40)</f>
-        <v>3537</v>
-      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5785,12 +5572,8 @@
       <c r="AK41" s="4">
         <v>2</v>
       </c>
-      <c r="AL41" s="12">
-        <f>SUM(G41:AK41)</f>
-        <v>3470</v>
-      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5902,12 +5685,8 @@
       <c r="AK42" s="4">
         <v>95</v>
       </c>
-      <c r="AL42" s="12">
-        <f>SUM(G42:AK42)</f>
-        <v>3431</v>
-      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6019,12 +5798,8 @@
       <c r="AK43" s="4">
         <v>41</v>
       </c>
-      <c r="AL43" s="12">
-        <f>SUM(G43:AK43)</f>
-        <v>3423</v>
-      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -6136,12 +5911,8 @@
       <c r="AK44" s="4">
         <v>0</v>
       </c>
-      <c r="AL44" s="12">
-        <f>SUM(G44:AK44)</f>
-        <v>2901</v>
-      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -6253,12 +6024,8 @@
       <c r="AK45" s="4">
         <v>241</v>
       </c>
-      <c r="AL45" s="12">
-        <f>SUM(G45:AK45)</f>
-        <v>2395</v>
-      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -6370,12 +6137,8 @@
       <c r="AK46" s="4">
         <v>143</v>
       </c>
-      <c r="AL46" s="12">
-        <f>SUM(G46:AK46)</f>
-        <v>2232</v>
-      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -6487,12 +6250,8 @@
       <c r="AK47" s="4">
         <v>0</v>
       </c>
-      <c r="AL47" s="12">
-        <f>SUM(G47:AK47)</f>
-        <v>2168</v>
-      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -6604,12 +6363,8 @@
       <c r="AK48" s="4">
         <v>0</v>
       </c>
-      <c r="AL48" s="12">
-        <f>SUM(G48:AK48)</f>
-        <v>2155</v>
-      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -6721,12 +6476,8 @@
       <c r="AK49" s="4">
         <v>378</v>
       </c>
-      <c r="AL49" s="12">
-        <f>SUM(G49:AK49)</f>
-        <v>2066</v>
-      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -6838,12 +6589,8 @@
       <c r="AK50" s="4">
         <v>0</v>
       </c>
-      <c r="AL50" s="12">
-        <f>SUM(G50:AK50)</f>
-        <v>1943</v>
-      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -6955,12 +6702,8 @@
       <c r="AK51" s="4">
         <v>2</v>
       </c>
-      <c r="AL51" s="12">
-        <f>SUM(G51:AK51)</f>
-        <v>1718</v>
-      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7072,12 +6815,8 @@
       <c r="AK52" s="4">
         <v>0</v>
       </c>
-      <c r="AL52" s="12">
-        <f>SUM(G52:AK52)</f>
-        <v>1530</v>
-      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -7189,12 +6928,8 @@
       <c r="AK53" s="4">
         <v>0</v>
       </c>
-      <c r="AL53" s="12">
-        <f>SUM(G53:AK53)</f>
-        <v>1519</v>
-      </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -7306,12 +7041,8 @@
       <c r="AK54" s="4">
         <v>0</v>
       </c>
-      <c r="AL54" s="12">
-        <f>SUM(G54:AK54)</f>
-        <v>1438</v>
-      </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -7423,12 +7154,8 @@
       <c r="AK55" s="4">
         <v>9</v>
       </c>
-      <c r="AL55" s="12">
-        <f>SUM(G55:AK55)</f>
-        <v>1403</v>
-      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -7540,12 +7267,8 @@
       <c r="AK56" s="4">
         <v>36</v>
       </c>
-      <c r="AL56" s="12">
-        <f>SUM(G56:AK56)</f>
-        <v>1376</v>
-      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7657,12 +7380,8 @@
       <c r="AK57" s="4">
         <v>81</v>
       </c>
-      <c r="AL57" s="12">
-        <f>SUM(G57:AK57)</f>
-        <v>1245</v>
-      </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -7774,12 +7493,8 @@
       <c r="AK58" s="4">
         <v>39</v>
       </c>
-      <c r="AL58" s="12">
-        <f>SUM(G58:AK58)</f>
-        <v>1236</v>
-      </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -7891,12 +7606,8 @@
       <c r="AK59" s="4">
         <v>8</v>
       </c>
-      <c r="AL59" s="12">
-        <f>SUM(G59:AK59)</f>
-        <v>1227</v>
-      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -8008,12 +7719,8 @@
       <c r="AK60" s="4">
         <v>0</v>
       </c>
-      <c r="AL60" s="12">
-        <f>SUM(G60:AK60)</f>
-        <v>1157</v>
-      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -8125,12 +7832,8 @@
       <c r="AK61" s="4">
         <v>252</v>
       </c>
-      <c r="AL61" s="12">
-        <f>SUM(G61:AK61)</f>
-        <v>1043</v>
-      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -8242,12 +7945,8 @@
       <c r="AK62" s="4">
         <v>1</v>
       </c>
-      <c r="AL62" s="12">
-        <f>SUM(G62:AK62)</f>
-        <v>1035</v>
-      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -8359,12 +8058,8 @@
       <c r="AK63" s="4">
         <v>0</v>
       </c>
-      <c r="AL63" s="12">
-        <f>SUM(G63:AK63)</f>
-        <v>970</v>
-      </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -8476,12 +8171,8 @@
       <c r="AK64" s="4">
         <v>3</v>
       </c>
-      <c r="AL64" s="12">
-        <f>SUM(G64:AK64)</f>
-        <v>958</v>
-      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -8593,12 +8284,8 @@
       <c r="AK65" s="4">
         <v>89</v>
       </c>
-      <c r="AL65" s="12">
-        <f>SUM(G65:AK65)</f>
-        <v>921</v>
-      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -8710,12 +8397,8 @@
       <c r="AK66" s="4">
         <v>16</v>
       </c>
-      <c r="AL66" s="12">
-        <f>SUM(G66:AK66)</f>
-        <v>853</v>
-      </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -8827,12 +8510,8 @@
       <c r="AK67" s="4">
         <v>80</v>
       </c>
-      <c r="AL67" s="12">
-        <f>SUM(G67:AK67)</f>
-        <v>831</v>
-      </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -8944,12 +8623,8 @@
       <c r="AK68" s="4">
         <v>5</v>
       </c>
-      <c r="AL68" s="12">
-        <f>SUM(G68:AK68)</f>
-        <v>812</v>
-      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -9061,12 +8736,8 @@
       <c r="AK69" s="4">
         <v>17</v>
       </c>
-      <c r="AL69" s="12">
-        <f>SUM(G69:AK69)</f>
-        <v>806</v>
-      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -9178,12 +8849,8 @@
       <c r="AK70" s="4">
         <v>8</v>
       </c>
-      <c r="AL70" s="12">
-        <f>SUM(G70:AK70)</f>
-        <v>772</v>
-      </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -9295,12 +8962,8 @@
       <c r="AK71" s="4">
         <v>0</v>
       </c>
-      <c r="AL71" s="12">
-        <f>SUM(G71:AK71)</f>
-        <v>769</v>
-      </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -9412,12 +9075,8 @@
       <c r="AK72" s="4">
         <v>1</v>
       </c>
-      <c r="AL72" s="12">
-        <f>SUM(G72:AK72)</f>
-        <v>738</v>
-      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -9529,12 +9188,8 @@
       <c r="AK73" s="4">
         <v>72</v>
       </c>
-      <c r="AL73" s="12">
-        <f>SUM(G73:AK73)</f>
-        <v>713</v>
-      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -9646,12 +9301,8 @@
       <c r="AK74" s="4">
         <v>0</v>
       </c>
-      <c r="AL74" s="12">
-        <f>SUM(G74:AK74)</f>
-        <v>662</v>
-      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -9763,12 +9414,8 @@
       <c r="AK75" s="4">
         <v>0</v>
       </c>
-      <c r="AL75" s="12">
-        <f>SUM(G75:AK75)</f>
-        <v>656</v>
-      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9880,12 +9527,8 @@
       <c r="AK76" s="4">
         <v>1</v>
       </c>
-      <c r="AL76" s="12">
-        <f>SUM(G76:AK76)</f>
-        <v>600</v>
-      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -9997,12 +9640,8 @@
       <c r="AK77" s="4">
         <v>4</v>
       </c>
-      <c r="AL77" s="12">
-        <f>SUM(G77:AK77)</f>
-        <v>565</v>
-      </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10114,12 +9753,8 @@
       <c r="AK78" s="4">
         <v>18</v>
       </c>
-      <c r="AL78" s="12">
-        <f>SUM(G78:AK78)</f>
-        <v>546</v>
-      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -10231,12 +9866,8 @@
       <c r="AK79" s="4">
         <v>63</v>
       </c>
-      <c r="AL79" s="12">
-        <f>SUM(G79:AK79)</f>
-        <v>525</v>
-      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -10348,12 +9979,8 @@
       <c r="AK80" s="4">
         <v>0</v>
       </c>
-      <c r="AL80" s="12">
-        <f>SUM(G80:AK80)</f>
-        <v>509</v>
-      </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -10465,12 +10092,8 @@
       <c r="AK81" s="4">
         <v>0</v>
       </c>
-      <c r="AL81" s="12">
-        <f>SUM(G81:AK81)</f>
-        <v>430</v>
-      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -10582,12 +10205,8 @@
       <c r="AK82" s="4">
         <v>2</v>
       </c>
-      <c r="AL82" s="12">
-        <f>SUM(G82:AK82)</f>
-        <v>420</v>
-      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -10699,12 +10318,8 @@
       <c r="AK83" s="4">
         <v>0</v>
       </c>
-      <c r="AL83" s="12">
-        <f>SUM(G83:AK83)</f>
-        <v>380</v>
-      </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -10816,12 +10431,8 @@
       <c r="AK84" s="4">
         <v>19</v>
       </c>
-      <c r="AL84" s="12">
-        <f>SUM(G84:AK84)</f>
-        <v>371</v>
-      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -10933,12 +10544,8 @@
       <c r="AK85" s="4">
         <v>0</v>
       </c>
-      <c r="AL85" s="12">
-        <f>SUM(G85:AK85)</f>
-        <v>367</v>
-      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -11050,12 +10657,8 @@
       <c r="AK86" s="4">
         <v>0</v>
       </c>
-      <c r="AL86" s="12">
-        <f>SUM(G86:AK86)</f>
-        <v>347</v>
-      </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -11167,12 +10770,8 @@
       <c r="AK87" s="4">
         <v>2</v>
       </c>
-      <c r="AL87" s="12">
-        <f>SUM(G87:AK87)</f>
-        <v>334</v>
-      </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -11284,12 +10883,8 @@
       <c r="AK88" s="4">
         <v>0</v>
       </c>
-      <c r="AL88" s="12">
-        <f>SUM(G88:AK88)</f>
-        <v>305</v>
-      </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -11401,12 +10996,8 @@
       <c r="AK89" s="4">
         <v>4</v>
       </c>
-      <c r="AL89" s="12">
-        <f>SUM(G89:AK89)</f>
-        <v>302</v>
-      </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -11518,12 +11109,8 @@
       <c r="AK90" s="4">
         <v>2</v>
       </c>
-      <c r="AL90" s="12">
-        <f>SUM(G90:AK90)</f>
-        <v>300</v>
-      </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -11635,12 +11222,8 @@
       <c r="AK91" s="4">
         <v>0</v>
       </c>
-      <c r="AL91" s="12">
-        <f>SUM(G91:AK91)</f>
-        <v>298</v>
-      </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -11752,12 +11335,8 @@
       <c r="AK92" s="4">
         <v>0</v>
       </c>
-      <c r="AL92" s="12">
-        <f>SUM(G92:AK92)</f>
-        <v>294</v>
-      </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -11869,12 +11448,8 @@
       <c r="AK93" s="4">
         <v>0</v>
       </c>
-      <c r="AL93" s="12">
-        <f>SUM(G93:AK93)</f>
-        <v>282</v>
-      </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -11986,132 +11561,121 @@
       <c r="AK94" s="4">
         <v>36</v>
       </c>
-      <c r="AL94" s="12">
-        <f>SUM(G94:AK94)</f>
-        <v>250</v>
-      </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G95" s="15">
-        <v>0</v>
-      </c>
-      <c r="H95" s="15">
-        <v>1</v>
-      </c>
-      <c r="I95" s="15">
-        <v>0</v>
-      </c>
-      <c r="J95" s="15">
-        <v>0</v>
-      </c>
-      <c r="K95" s="15">
-        <v>0</v>
-      </c>
-      <c r="L95" s="15">
-        <v>0</v>
-      </c>
-      <c r="M95" s="15">
+      <c r="G95" s="8">
+        <v>0</v>
+      </c>
+      <c r="H95" s="8">
+        <v>1</v>
+      </c>
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
+        <v>0</v>
+      </c>
+      <c r="K95" s="8">
+        <v>0</v>
+      </c>
+      <c r="L95" s="8">
+        <v>0</v>
+      </c>
+      <c r="M95" s="8">
         <v>5</v>
       </c>
-      <c r="N95" s="15">
-        <v>0</v>
-      </c>
-      <c r="O95" s="15">
-        <v>0</v>
-      </c>
-      <c r="P95" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="15">
-        <v>0</v>
-      </c>
-      <c r="R95" s="15">
-        <v>0</v>
-      </c>
-      <c r="S95" s="15">
-        <v>0</v>
-      </c>
-      <c r="T95" s="15">
-        <v>0</v>
-      </c>
-      <c r="U95" s="15">
-        <v>1</v>
-      </c>
-      <c r="V95" s="15">
+      <c r="N95" s="8">
+        <v>0</v>
+      </c>
+      <c r="O95" s="8">
+        <v>0</v>
+      </c>
+      <c r="P95" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>0</v>
+      </c>
+      <c r="R95" s="8">
+        <v>0</v>
+      </c>
+      <c r="S95" s="8">
+        <v>0</v>
+      </c>
+      <c r="T95" s="8">
+        <v>0</v>
+      </c>
+      <c r="U95" s="8">
+        <v>1</v>
+      </c>
+      <c r="V95" s="8">
         <v>6</v>
       </c>
-      <c r="W95" s="15">
-        <v>1</v>
-      </c>
-      <c r="X95" s="15">
+      <c r="W95" s="8">
+        <v>1</v>
+      </c>
+      <c r="X95" s="8">
         <v>4</v>
       </c>
-      <c r="Y95" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="15">
+      <c r="Y95" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="8">
         <v>3</v>
       </c>
-      <c r="AA95" s="15">
+      <c r="AA95" s="8">
         <v>107</v>
       </c>
-      <c r="AB95" s="15">
+      <c r="AB95" s="8">
         <v>6</v>
       </c>
-      <c r="AC95" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD95" s="15">
+      <c r="AC95" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="8">
         <v>5</v>
       </c>
-      <c r="AE95" s="15">
+      <c r="AE95" s="8">
         <v>4</v>
       </c>
-      <c r="AF95" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH95" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI95" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ95" s="15">
+      <c r="AF95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="8">
         <v>3</v>
       </c>
-      <c r="AK95" s="15">
+      <c r="AK95" s="8">
         <v>18</v>
-      </c>
-      <c r="AL95" s="14">
-        <f>SUM(G95:AK95)</f>
-        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AL1:AL3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
